--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H2">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N2">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O2">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P2">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q2">
-        <v>0.3541018693918396</v>
+        <v>0.5880465850074444</v>
       </c>
       <c r="R2">
-        <v>0.3541018693918396</v>
+        <v>5.292419265067</v>
       </c>
       <c r="S2">
-        <v>2.901152185783774E-05</v>
+        <v>4.331774892256904E-05</v>
       </c>
       <c r="T2">
-        <v>2.901152185783774E-05</v>
+        <v>4.331774892256903E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H3">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I3">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J3">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N3">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O3">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P3">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q3">
-        <v>4.152163542664292</v>
+        <v>5.231326369161445</v>
       </c>
       <c r="R3">
-        <v>4.152163542664292</v>
+        <v>47.081937322453</v>
       </c>
       <c r="S3">
-        <v>0.0003401862395762268</v>
+        <v>0.0003853594051370631</v>
       </c>
       <c r="T3">
-        <v>0.0003401862395762268</v>
+        <v>0.0003853594051370629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H4">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I4">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J4">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N4">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O4">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P4">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q4">
-        <v>33.62571454062783</v>
+        <v>45.34973278761932</v>
       </c>
       <c r="R4">
-        <v>33.62571454062783</v>
+        <v>408.147595088574</v>
       </c>
       <c r="S4">
-        <v>0.002754950585424157</v>
+        <v>0.003340633869295953</v>
       </c>
       <c r="T4">
-        <v>0.002754950585424157</v>
+        <v>0.003340633869295952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H5">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I5">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J5">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N5">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O5">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P5">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q5">
-        <v>42.74263360259489</v>
+        <v>53.59311035044022</v>
       </c>
       <c r="R5">
-        <v>42.74263360259489</v>
+        <v>482.337993153962</v>
       </c>
       <c r="S5">
-        <v>0.00350189862355979</v>
+        <v>0.003947872425975428</v>
       </c>
       <c r="T5">
-        <v>0.00350189862355979</v>
+        <v>0.003947872425975427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H6">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I6">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J6">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N6">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O6">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P6">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q6">
-        <v>14.63667455487863</v>
+        <v>18.38591660907222</v>
       </c>
       <c r="R6">
-        <v>14.63667455487863</v>
+        <v>165.47324948165</v>
       </c>
       <c r="S6">
-        <v>0.001199180915097153</v>
+        <v>0.001354376574388234</v>
       </c>
       <c r="T6">
-        <v>0.001199180915097153</v>
+        <v>0.001354376574388234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="H7">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="I7">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="J7">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N7">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O7">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P7">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q7">
-        <v>1.879427386852788</v>
+        <v>2.380858836425667</v>
       </c>
       <c r="R7">
-        <v>1.879427386852788</v>
+        <v>21.427729527831</v>
       </c>
       <c r="S7">
-        <v>0.0001539812506710112</v>
+        <v>0.0001753831208713868</v>
       </c>
       <c r="T7">
-        <v>0.0001539812506710112</v>
+        <v>0.0001753831208713868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H8">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I8">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J8">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N8">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O8">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P8">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q8">
-        <v>29.65192442298369</v>
+        <v>39.71437647247078</v>
       </c>
       <c r="R8">
-        <v>29.65192442298369</v>
+        <v>357.429388252237</v>
       </c>
       <c r="S8">
-        <v>0.002429378458243657</v>
+        <v>0.002925512081035371</v>
       </c>
       <c r="T8">
-        <v>0.002429378458243657</v>
+        <v>0.002925512081035371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H9">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I9">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J9">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N9">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O9">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P9">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q9">
-        <v>347.6955367968107</v>
+        <v>353.3034119611648</v>
       </c>
       <c r="R9">
-        <v>347.6955367968107</v>
+        <v>3179.730707650484</v>
       </c>
       <c r="S9">
-        <v>0.02848665182981878</v>
+        <v>0.02602567361670328</v>
       </c>
       <c r="T9">
-        <v>0.02848665182981878</v>
+        <v>0.02602567361670328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H10">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I10">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J10">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N10">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O10">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P10">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q10">
-        <v>2815.763576566134</v>
+        <v>3062.744358647479</v>
       </c>
       <c r="R10">
-        <v>2815.763576566134</v>
+        <v>27564.69922782731</v>
       </c>
       <c r="S10">
-        <v>0.2306951575498639</v>
+        <v>0.2256134029589283</v>
       </c>
       <c r="T10">
-        <v>0.2306951575498639</v>
+        <v>0.2256134029589282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H11">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I11">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J11">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N11">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O11">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P11">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q11">
-        <v>3579.199803153128</v>
+        <v>3619.469979170287</v>
       </c>
       <c r="R11">
-        <v>3579.199803153128</v>
+        <v>32575.22981253258</v>
       </c>
       <c r="S11">
-        <v>0.2932433920811673</v>
+        <v>0.266623930463757</v>
       </c>
       <c r="T11">
-        <v>0.2932433920811673</v>
+        <v>0.266623930463757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H12">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I12">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J12">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N12">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O12">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P12">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q12">
-        <v>1225.651726861715</v>
+        <v>1241.713212219239</v>
       </c>
       <c r="R12">
-        <v>1225.651726861715</v>
+        <v>11175.41890997315</v>
       </c>
       <c r="S12">
-        <v>0.1004174926413553</v>
+        <v>0.09146931983300054</v>
       </c>
       <c r="T12">
-        <v>0.1004174926413553</v>
+        <v>0.09146931983300051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="H13">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="I13">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="J13">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N13">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O13">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P13">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q13">
-        <v>157.3802446430374</v>
+        <v>160.7939346445157</v>
       </c>
       <c r="R13">
-        <v>157.3802446430374</v>
+        <v>1447.145411800641</v>
       </c>
       <c r="S13">
-        <v>0.0128941437538724</v>
+        <v>0.01184469303416655</v>
       </c>
       <c r="T13">
-        <v>0.0128941437538724</v>
+        <v>0.01184469303416655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H14">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="I14">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="J14">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N14">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O14">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P14">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q14">
-        <v>14.37203967232855</v>
+        <v>0.1272612644871111</v>
       </c>
       <c r="R14">
-        <v>14.37203967232855</v>
+        <v>1.145351380384</v>
       </c>
       <c r="S14">
-        <v>0.001177499412278109</v>
+        <v>9.374548961204396E-06</v>
       </c>
       <c r="T14">
-        <v>0.001177499412278109</v>
+        <v>9.374548961204394E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H15">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="I15">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="J15">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N15">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O15">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P15">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q15">
-        <v>168.5251175421858</v>
+        <v>1.132130048295111</v>
       </c>
       <c r="R15">
-        <v>168.5251175421858</v>
+        <v>10.189170434656</v>
       </c>
       <c r="S15">
-        <v>0.01380724179617243</v>
+        <v>8.339700702304518E-05</v>
       </c>
       <c r="T15">
-        <v>0.01380724179617243</v>
+        <v>8.339700702304516E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H16">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="I16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="J16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N16">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O16">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P16">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q16">
-        <v>1364.777046272876</v>
+        <v>9.814297856405332</v>
       </c>
       <c r="R16">
-        <v>1364.777046272876</v>
+        <v>88.32868070764799</v>
       </c>
       <c r="S16">
-        <v>0.1118160126548409</v>
+        <v>0.0007229585227328403</v>
       </c>
       <c r="T16">
-        <v>0.1118160126548409</v>
+        <v>0.0007229585227328402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H17">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="I17">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="J17">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N17">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O17">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P17">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q17">
-        <v>1734.808197684296</v>
+        <v>11.59827667549156</v>
       </c>
       <c r="R17">
-        <v>1734.808197684296</v>
+        <v>104.384490079424</v>
       </c>
       <c r="S17">
-        <v>0.1421326185956417</v>
+        <v>0.0008543731904455691</v>
       </c>
       <c r="T17">
-        <v>0.1421326185956417</v>
+        <v>0.0008543731904455689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H18">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="I18">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="J18">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N18">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O18">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P18">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q18">
-        <v>594.0631370711576</v>
+        <v>3.978961966755556</v>
       </c>
       <c r="R18">
-        <v>594.0631370711576</v>
+        <v>35.8106577008</v>
       </c>
       <c r="S18">
-        <v>0.04867151849741894</v>
+        <v>0.0002931054781079744</v>
       </c>
       <c r="T18">
-        <v>0.04867151849741894</v>
+        <v>0.0002931054781079744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.439328</v>
+      </c>
+      <c r="I19">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="J19">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.518443</v>
+      </c>
+      <c r="N19">
+        <v>10.555329</v>
+      </c>
+      <c r="O19">
+        <v>0.01896660530177307</v>
+      </c>
+      <c r="P19">
+        <v>0.01896660530177307</v>
+      </c>
+      <c r="Q19">
+        <v>0.5152501754346667</v>
+      </c>
+      <c r="R19">
+        <v>4.637251578912</v>
+      </c>
+      <c r="S19">
+        <v>3.795528840883581E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.79552884088358E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>26.65531</v>
+      </c>
+      <c r="H20">
+        <v>79.96593</v>
+      </c>
+      <c r="I20">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J20">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8690176666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.607053</v>
+      </c>
+      <c r="O20">
+        <v>0.004684547990100867</v>
+      </c>
+      <c r="P20">
+        <v>0.004684547990100866</v>
+      </c>
+      <c r="Q20">
+        <v>23.16393530047667</v>
+      </c>
+      <c r="R20">
+        <v>208.47541770429</v>
+      </c>
+      <c r="S20">
+        <v>0.001706343611181722</v>
+      </c>
+      <c r="T20">
+        <v>0.001706343611181721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>26.65531</v>
+      </c>
+      <c r="H21">
+        <v>79.96593</v>
+      </c>
+      <c r="I21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.730875666666667</v>
+      </c>
+      <c r="N21">
+        <v>23.192627</v>
+      </c>
+      <c r="O21">
+        <v>0.04167424835552215</v>
+      </c>
+      <c r="P21">
+        <v>0.04167424835552214</v>
+      </c>
+      <c r="Q21">
+        <v>206.0688874664567</v>
+      </c>
+      <c r="R21">
+        <v>1854.61998719811</v>
+      </c>
+      <c r="S21">
+        <v>0.01517981832665876</v>
+      </c>
+      <c r="T21">
+        <v>0.01517981832665876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>26.65531</v>
+      </c>
+      <c r="H22">
+        <v>79.96593</v>
+      </c>
+      <c r="I22">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J22">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>67.01802199999999</v>
+      </c>
+      <c r="N22">
+        <v>201.054066</v>
+      </c>
+      <c r="O22">
+        <v>0.3612689963655924</v>
+      </c>
+      <c r="P22">
+        <v>0.3612689963655923</v>
+      </c>
+      <c r="Q22">
+        <v>1786.38615199682</v>
+      </c>
+      <c r="R22">
+        <v>16077.47536797138</v>
+      </c>
+      <c r="S22">
+        <v>0.1315920010146354</v>
+      </c>
+      <c r="T22">
+        <v>0.1315920010146353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="H19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="I19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="J19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.45690420706673</v>
-      </c>
-      <c r="N19">
-        <v>3.45690420706673</v>
-      </c>
-      <c r="O19">
-        <v>0.01929780859768386</v>
-      </c>
-      <c r="P19">
-        <v>0.01929780859768386</v>
-      </c>
-      <c r="Q19">
-        <v>76.28088778943773</v>
-      </c>
-      <c r="R19">
-        <v>76.28088778943773</v>
-      </c>
-      <c r="S19">
-        <v>0.006249683593140445</v>
-      </c>
-      <c r="T19">
-        <v>0.006249683593140445</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>26.65531</v>
+      </c>
+      <c r="H23">
+        <v>79.96593</v>
+      </c>
+      <c r="I23">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J23">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.20011933333333</v>
+      </c>
+      <c r="N23">
+        <v>237.600358</v>
+      </c>
+      <c r="O23">
+        <v>0.4269381096265194</v>
+      </c>
+      <c r="P23">
+        <v>0.4269381096265193</v>
+      </c>
+      <c r="Q23">
+        <v>2111.103732866993</v>
+      </c>
+      <c r="R23">
+        <v>18999.93359580294</v>
+      </c>
+      <c r="S23">
+        <v>0.1555119335463414</v>
+      </c>
+      <c r="T23">
+        <v>0.1555119335463413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>26.65531</v>
+      </c>
+      <c r="H24">
+        <v>79.96593</v>
+      </c>
+      <c r="I24">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J24">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>27.17078333333333</v>
+      </c>
+      <c r="N24">
+        <v>81.51235</v>
+      </c>
+      <c r="O24">
+        <v>0.1464674923604922</v>
+      </c>
+      <c r="P24">
+        <v>0.1464674923604922</v>
+      </c>
+      <c r="Q24">
+        <v>724.2456526928333</v>
+      </c>
+      <c r="R24">
+        <v>6518.210874235499</v>
+      </c>
+      <c r="S24">
+        <v>0.05335069047499549</v>
+      </c>
+      <c r="T24">
+        <v>0.05335069047499547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>26.65531</v>
+      </c>
+      <c r="H25">
+        <v>79.96593</v>
+      </c>
+      <c r="I25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="J25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.518443</v>
+      </c>
+      <c r="N25">
+        <v>10.555329</v>
+      </c>
+      <c r="O25">
+        <v>0.01896660530177307</v>
+      </c>
+      <c r="P25">
+        <v>0.01896660530177307</v>
+      </c>
+      <c r="Q25">
+        <v>93.78518888233</v>
+      </c>
+      <c r="R25">
+        <v>844.06669994097</v>
+      </c>
+      <c r="S25">
+        <v>0.006908573858326298</v>
+      </c>
+      <c r="T25">
+        <v>0.006908573858326297</v>
       </c>
     </row>
   </sheetData>
